--- a/biology/Médecine/Articulation_coxale/Articulation_coxale.xlsx
+++ b/biology/Médecine/Articulation_coxale/Articulation_coxale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'articulation coxale (ou  articulation de la hanche ou articulation coxo-fémorale)  est l'articulation cotyloïde de type énarthrose du membre inférieur qui unit l'os coxal au fémur et qui joint la cuisse au bassin.
 </t>
@@ -511,7 +523,9 @@
           <t>Surfaces articulaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La surface articulaire fémorale de l'articulation coxale est constituée de la tête fémorale. Elle forme les deux-tiers d'une sphère de 20 à 25 mm de rayon Elle est entièrement recouverte de cartilage à l'exception de la fossette de la tête du fémur.
 La tête fémorale s’insère dans la cavité cotyloïde concave située sur la face latérale de l'os coxal. La cavité est formée par l'acétabulum qui n'est recouvert de cartilage que sur sa partie périphérique sous la forme d'un croissant formant la surface lunaire de l'acétabulum. La partie profonde non articulaire n'entre pas en contact avec la tête fémorale et en est séparé par un paquet adipeux.
@@ -543,7 +557,9 @@
           <t>Moyens d'union</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La capsule articulaire entoure toute la tête fémorale en s'insérant à distance du cartilage : en avant le long de la ligne inter-trochantérique et en arrière à la jonction du tiers latéral et des deux-tiers médiaux du col fémoral.
 Du côté de l'os coxal, elle s'insère sur la face externe du labrum acétabulaire et sur le pourtour de l'acétabulum.
@@ -582,7 +598,9 @@
           <t>Moyens d'union actifs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>L'articulation coxale est consolidé par le système musculaire de mobilisation de l'articulation :
 le muscle grand glutéal,
@@ -627,10 +645,12 @@
           <t>Anatomie fonctionnelle</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>L'articulation coxale est une articulation dite sphéroïde qui permet une répartition homogène des forces et une optimisation de l'amplitude du mouvement.
-Elle possède trois degrés de liberté[1]: elle permet d'effectuer des mouvements comme se tourner dans un sens sans bouger les jambes. La hanche participe au moins à six mouvements, à savoir : l'abduction, l'adduction, l'extension, la rotation et la circumduction[2].
+Elle possède trois degrés de liberté: elle permet d'effectuer des mouvements comme se tourner dans un sens sans bouger les jambes. La hanche participe au moins à six mouvements, à savoir : l'abduction, l'adduction, l'extension, la rotation et la circumduction.
 Extension de la hanche : 10° à 15°
 Flexion de la hanche : 120° jambe fléchie, 90° jambe tendue
 Abduction de la hanche : 45°
@@ -667,21 +687,142 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Imagerie de la hanche
-Radiologie conventionnelle
-En radiographie standard[3] :
+          <t>Imagerie de la hanche</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Radiologie conventionnelle</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En radiographie standard :
 le bassin de face Debout permet d'évaluer l'épaisseur de l'interligne articulaire et la statique du bassin (recherche d'une bascule du bassin en cas d'inégalité de longueur des membres inférieurs). Ce cliché montre un cintre cervico-obturateur qui doit être régulier ;
 le faux profil de Lequesne permet de mesurer la couverture antérieur et d'évaluer l'interligne articulaire dans le sens antéro-postérieur ce qui est un élément diagnostique plus sensible lors du dépistage de la coxarthrose débutante ;
 le profil chirurgical (d'Arcelin ou de Ducroquet)  est l'examen simple ne nécessitant pas la mobilisation de l'articulation, à la recherche d'une fracture du col fémoral ;
 le profil urétral utile dans la recherche d'une ostéonécrose de la tête fémorale.
 En radiologie conventionnelle, la coxométrie est la mesure des angles formés par les différentes structures de la hanche et de diagnostiquer des anomalies constitutionnelles ou acquises.
-Arthrographie et Arthroscanner
-Indiqués dans la recherche de corps libres cartilagineux (chondromatose). L'arthroscanner étant l'examen de choix pour l'examen du bourrelet acétabulaire et des surfaces cartilagineuses cotyloïdienne et fémorale.
-Imagerie par résonance magnétique
-Examen utile pour examiner la membrane synoviale, l'os épiphysaire et déceler des épanchements intra-articulaires.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Articulation_coxale</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Articulation_coxale</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Aspects cliniques</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Imagerie de la hanche</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Arthrographie et Arthroscanner</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Indiqués dans la recherche de corps libres cartilagineux (chondromatose). L'arthroscanner étant l'examen de choix pour l'examen du bourrelet acétabulaire et des surfaces cartilagineuses cotyloïdienne et fémorale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Articulation_coxale</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Articulation_coxale</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Aspects cliniques</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Imagerie de la hanche</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Imagerie par résonance magnétique</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Examen utile pour examiner la membrane synoviale, l'os épiphysaire et déceler des épanchements intra-articulaires.
 L'échographie est également utilisée, principalement pour rechercher un épanchement articulaire ou, chez le nouveau-né, afin de dépister une luxation congénitale de hanche.
-Pathologies de la hanche
-Luxation de hanche où la tête fémorale est sortie de la cavité cotyloïde,
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Articulation_coxale</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Articulation_coxale</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Aspects cliniques</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Pathologies de la hanche</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Luxation de hanche où la tête fémorale est sortie de la cavité cotyloïde,
 Luxation congénitale de hanche,
 Fracture du col du fémur,
 Ostéonécrose de la tête fémorale et ostéochondrite primitive de hanche, pathologies dégénératives de l'os de la tête fémorale,
